--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -1,268 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\github.com\east-eden\server\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemProto" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
-  <si>
-    <t>-1-无效果 -0-掉落，EffectValue值为掉落id -1-鉴定御魂</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>子类型</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>最大堆叠数</t>
-  </si>
-  <si>
-    <t>使用效果</t>
-  </si>
-  <si>
-    <t>效果数值</t>
-  </si>
-  <si>
-    <t>装备强化id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>SubType</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>MaxStack</t>
-  </si>
-  <si>
-    <t>EffectType</t>
-  </si>
-  <si>
-    <t>EffectValue</t>
-  </si>
-  <si>
-    <t>EquipEnchantID</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>经验包子</t>
-  </si>
-  <si>
-    <t>使用增加100点玩家经验</t>
-  </si>
-  <si>
-    <t>baozi</t>
-  </si>
-  <si>
-    <t>霜之哀伤</t>
-  </si>
-  <si>
-    <t>巫妖王的武器</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>新春礼包</t>
-  </si>
-  <si>
-    <t>春节大礼</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>御魂（未鉴定）</t>
-  </si>
-  <si>
-    <t>未鉴定的御魂</t>
-  </si>
-  <si>
-    <t>rune_undefined</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>行列头两行不会被读取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0-普通物品  1-装备  2-礼包  3-御魂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1-无效果 +0-掉落，EffectValue值为掉落id +1-鉴定御魂</t>
+  </si>
+  <si>
+    <t>导出字段名</t>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>MaxStack</t>
+  </si>
+  <si>
+    <t>EffectType</t>
+  </si>
+  <si>
+    <t>EffectValue</t>
+  </si>
+  <si>
+    <t>EquipEnchantID</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>子类型</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>最大堆叠数</t>
+  </si>
+  <si>
+    <t>使用效果</t>
+  </si>
+  <si>
+    <t>效果数值</t>
+  </si>
+  <si>
+    <t>装备强化id</t>
+  </si>
+  <si>
+    <t>客户端导出字段类型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>服务器导出字段类型</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>导出字段默认值</t>
   </si>
   <si>
     <t>默认物品名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>默认物品描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>default_icon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验包子</t>
+  </si>
+  <si>
+    <t>使用增加100点玩家经验</t>
+  </si>
+  <si>
+    <t>baozi</t>
+  </si>
+  <si>
+    <t>霜之哀伤</t>
+  </si>
+  <si>
+    <t>巫妖王的武器</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>新春礼包</t>
+  </si>
+  <si>
+    <t>春节大礼</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>御魂（未鉴定）</t>
+  </si>
+  <si>
+    <t>未鉴定的御魂</t>
+  </si>
+  <si>
+    <t>rune_undefined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="14"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="SimSun"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,6 +265,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -341,6 +295,26 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -352,154 +326,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -625,7 +564,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -634,7 +573,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -643,7 +582,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -717,7 +656,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -725,7 +664,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -744,7 +683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,15 +934,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1018,7 +951,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1026,7 +959,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1045,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,15 +1225,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1314,7 +1241,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1333,7 +1260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1441,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1493,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1519,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1545,7 +1472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1571,7 +1498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1584,404 +1511,412 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="54.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="14.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.67188" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.35156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.67188" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.1719" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.67188" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" ht="16.15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="16.15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="13.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="25" t="s">
+    <row r="8" ht="14.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>10</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.65" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="17">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="F9" t="s" s="17">
+        <v>43</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
         <v>0</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="I9" s="16">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
+    <row r="10" ht="15.2" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>5</v>
+      </c>
+      <c r="J10" s="21">
+        <v>99</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>2</v>
+      </c>
+      <c r="M10" s="22">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="11" ht="16.15" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="16">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s" s="17">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s" s="18">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="17">
+        <v>49</v>
+      </c>
+      <c r="G11" s="16">
+        <v>3</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>99</v>
+      </c>
+      <c r="K11" s="19">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>11</v>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19">
+        <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.65" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.65" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>5</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.2" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="12">
-        <v>3</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>5</v>
-      </c>
-      <c r="J9" s="17">
-        <v>99</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
-        <v>2</v>
-      </c>
-      <c r="M9" s="18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="12">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="12">
-        <v>3</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>99</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+    <row r="12" ht="16.15" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -111,7 +111,10 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>int[]</t>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>
@@ -1685,7 +1688,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="7">
         <v>29</v>
@@ -1697,62 +1700,62 @@
         <v>29</v>
       </c>
       <c r="G6" t="s" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s" s="8">
         <v>31</v>
-      </c>
-      <c r="M6" t="s" s="8">
-        <v>28</v>
       </c>
     </row>
     <row r="7" ht="16.15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" t="s" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="14.65" customHeight="1">
@@ -1762,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -1799,13 +1802,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s" s="17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s" s="17">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
@@ -1834,13 +1837,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s" s="18">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s" s="18">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="21">
         <v>2</v>
@@ -1871,13 +1874,13 @@
         <v>4</v>
       </c>
       <c r="D11" t="s" s="17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="17">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="16">
         <v>3</v>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -115,24 +115,6 @@
   </si>
   <si>
     <t>[]int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>默认物品名字</t>
-  </si>
-  <si>
-    <t>默认物品描述</t>
-  </si>
-  <si>
-    <t>default_icon</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-1</t>
   </si>
   <si>
     <t>经验包子</t>
@@ -1526,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1684,7 +1666,7 @@
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="10">
         <v>30</v>
       </c>
       <c r="C6" t="s" s="7">
@@ -1721,201 +1703,164 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="16.15" customHeight="1">
+    <row r="7" ht="14.65" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="3"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s" s="7">
+      <c r="E7" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="F7" t="s" s="14">
         <v>35</v>
       </c>
-      <c r="F7" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s" s="8">
-        <v>38</v>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" ht="14.65" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11">
+      <c r="C8" s="16">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="G8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s" s="13">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>10</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="I8" s="16">
+        <v>5</v>
+      </c>
+      <c r="J8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="11">
+      <c r="K8" s="19">
         <v>-1</v>
       </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" ht="14.65" customHeight="1">
+    <row r="9" ht="15.2" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="G9" s="21">
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s" s="18">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s" s="17">
-        <v>44</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="H9" s="21">
         <v>0</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="21">
         <v>5</v>
       </c>
-      <c r="J9" s="16">
-        <v>1</v>
+      <c r="J9" s="21">
+        <v>99</v>
       </c>
       <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>2</v>
+      </c>
+      <c r="M9" s="22">
         <v>-1</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="19">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" ht="15.2" customHeight="1">
+    <row r="10" ht="16.15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s" s="17">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s" s="18">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s" s="17">
+        <v>44</v>
+      </c>
+      <c r="G10" s="16">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="18">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s" s="18">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s" s="18">
-        <v>47</v>
-      </c>
-      <c r="G10" s="21">
-        <v>2</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="H10" s="16">
         <v>0</v>
       </c>
-      <c r="I10" s="21">
-        <v>5</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
         <v>99</v>
       </c>
       <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>2</v>
-      </c>
-      <c r="M10" s="22">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19">
         <v>-1</v>
       </c>
     </row>
     <row r="11" ht="16.15" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="17">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s" s="18">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s" s="17">
-        <v>50</v>
-      </c>
-      <c r="G11" s="16">
-        <v>3</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>99</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" ht="16.15" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -5,83 +5,94 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemProto" sheetId="1" r:id="rId4"/>
+    <sheet name="Hero" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>0-普通物品 -1-装备 -2-礼包 -3-御魂</t>
-  </si>
-  <si>
-    <t>-1-无效果 -0-掉落，EffectValue值为掉落id -1-鉴定御魂</t>
+    <t>物品id</t>
+  </si>
+  <si>
+    <t>0：普通物品 +1: 装备 +2: 礼包</t>
+  </si>
+  <si>
+    <t>0:N +1:R +2:SR +3:SSR +4:UR</t>
+  </si>
+  <si>
+    <t>永久物品填-1</t>
+  </si>
+  <si>
+    <t>-1：无效果 +0: 掉落物品 +</t>
+  </si>
+  <si>
+    <t>-1：无需填 +0: 掉落id +</t>
   </si>
   <si>
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>SubType</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>MaxStack</t>
-  </si>
-  <si>
-    <t>EffectType</t>
-  </si>
-  <si>
-    <t>EffectValue</t>
-  </si>
-  <si>
-    <t>EquipEnchantID</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>subType</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>maxStack</t>
+  </si>
+  <si>
+    <t>equipEnchantId</t>
+  </si>
+  <si>
+    <t>timeLife</t>
+  </si>
+  <si>
+    <t>effectType</t>
+  </si>
+  <si>
+    <t>effectValue</t>
   </si>
   <si>
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>子类型</t>
+    <t>物品名字</t>
+  </si>
+  <si>
+    <t>物品描述</t>
+  </si>
+  <si>
+    <t>物品类型</t>
+  </si>
+  <si>
+    <t>物品子类型</t>
   </si>
   <si>
     <t>品质</t>
@@ -90,67 +101,46 @@
     <t>最大堆叠数</t>
   </si>
   <si>
-    <t>使用效果</t>
-  </si>
-  <si>
-    <t>效果数值</t>
-  </si>
-  <si>
     <t>装备强化id</t>
   </si>
   <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>时限（分钟）</t>
+  </si>
+  <si>
+    <t>使用效果类型</t>
+  </si>
+  <si>
+    <t>使用效果参数</t>
+  </si>
+  <si>
+    <t>字段控制</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>服务器导出字段类型</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
     <t>[]int32</t>
   </si>
   <si>
-    <t>经验包子</t>
-  </si>
-  <si>
-    <t>使用增加100点玩家经验</t>
-  </si>
-  <si>
-    <t>baozi</t>
-  </si>
-  <si>
-    <t>霜之哀伤</t>
-  </si>
-  <si>
-    <t>巫妖王的武器</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>新春礼包</t>
-  </si>
-  <si>
-    <t>春节大礼</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>御魂（未鉴定）</t>
-  </si>
-  <si>
-    <t>未鉴定的御魂</t>
-  </si>
-  <si>
-    <t>rune_undefined</t>
+    <t>物品1</t>
+  </si>
+  <si>
+    <t>物品1描述</t>
+  </si>
+  <si>
+    <t>物品2</t>
+  </si>
+  <si>
+    <t>物品2描述</t>
   </si>
 </sst>
 </file>
@@ -160,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,20 +167,10 @@
       <name val="SimSun"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
     </font>
   </fonts>
   <fills count="4">
@@ -213,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -257,7 +237,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -280,20 +262,11 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -315,7 +288,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -328,74 +301,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,26 +1436,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="14.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.67188" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.35156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="36.1719" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.67188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.17188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1719" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8516" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17.3516" style="1" customWidth="1"/>
     <col min="14" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1">
+    <row r="1" ht="14" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1544,323 +1474,244 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" ht="58" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="C2" t="s" s="4">
+        <v>1</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="F2" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" t="s" s="4">
+        <v>3</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="K2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="16.15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>4</v>
+      <c r="B3" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="E3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="F3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="G3" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="L3" t="s" s="7">
+      <c r="H3" t="s" s="8">
         <v>13</v>
       </c>
+      <c r="I3" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s" s="8">
+        <v>17</v>
+      </c>
       <c r="M3" t="s" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>16</v>
+      <c r="B4" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="E4" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="F4" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="G4" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="K4" t="s" s="7">
+      <c r="H4" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="L4" t="s" s="7">
+      <c r="I4" t="s" s="8">
         <v>25</v>
       </c>
+      <c r="J4" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s" s="8">
+        <v>28</v>
+      </c>
       <c r="M4" t="s" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>28</v>
-      </c>
+      <c r="B5" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>31</v>
+      <c r="B6" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s" s="8">
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" ht="14.65" customHeight="1">
+    <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s" s="13">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="D7" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="11">
+      <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="J7" s="11">
-        <v>10</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="M7" s="11">
+      <c r="J7" s="9">
         <v>-1</v>
       </c>
+      <c r="K7" s="9">
+        <v>60</v>
+      </c>
+      <c r="L7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" ht="14.65" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s" s="18">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s" s="17">
+      <c r="D8" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G8" s="16">
+      <c r="E8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="16">
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>60</v>
+      </c>
+      <c r="L8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="16">
-        <v>5</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="M8" s="11">
         <v>1</v>
       </c>
-      <c r="K8" s="19">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="15.2" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="16">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s" s="18">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s" s="18">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s" s="18">
-        <v>41</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>5</v>
-      </c>
-      <c r="J9" s="21">
-        <v>99</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>2</v>
-      </c>
-      <c r="M9" s="22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" ht="16.15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="16">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s" s="18">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s" s="17">
-        <v>44</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>99</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" ht="16.15" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId4"/>
+    <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -34,6 +37,12 @@
     <t>永久物品填-1</t>
   </si>
   <si>
+    <t>时限开始时间</t>
+  </si>
+  <si>
+    <t>公式生成时间戳，策划不用填</t>
+  </si>
+  <si>
     <t>-1：无效果  0: 掉落物品  </t>
@@ -56,6 +65,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -74,6 +86,12 @@
     <t>timeLife</t>
   </si>
   <si>
+    <t>timeStartLife</t>
+  </si>
+  <si>
+    <t>timeStartLifeStamp</t>
+  </si>
+  <si>
     <t>effectType</t>
   </si>
   <si>
@@ -89,6 +107,9 @@
     <t>物品描述</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>物品类型</t>
   </si>
   <si>
@@ -107,6 +128,9 @@
     <t>时限（分钟）</t>
   </si>
   <si>
+    <t>时限开始时间（unix时间戳）</t>
+  </si>
+  <si>
     <t>使用效果类型</t>
   </si>
   <si>
@@ -131,49 +155,235 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>物品1</t>
-  </si>
-  <si>
-    <t>物品1描述</t>
-  </si>
-  <si>
-    <t>物品2</t>
-  </si>
-  <si>
-    <t>物品2描述</t>
+    <t>经验药水1</t>
+  </si>
+  <si>
+    <t>卡牌升级经验道具</t>
+  </si>
+  <si>
+    <t>icon_1</t>
+  </si>
+  <si>
+    <t>经验药水2</t>
+  </si>
+  <si>
+    <t>经验药水3</t>
+  </si>
+  <si>
+    <t>经验药水4</t>
+  </si>
+  <si>
+    <t>经验药水5</t>
+  </si>
+  <si>
+    <t>突破道具1</t>
+  </si>
+  <si>
+    <t>第1次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具2</t>
+  </si>
+  <si>
+    <t>第2次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具3</t>
+  </si>
+  <si>
+    <t>第3次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具4</t>
+  </si>
+  <si>
+    <t>第4次突破道具</t>
+  </si>
+  <si>
+    <t>突破道具5</t>
+  </si>
+  <si>
+    <t>第5次突破道具</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,17 +393,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -203,42 +599,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -246,112 +616,388 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -477,7 +1123,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,7 +1132,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,7 +1141,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,13 +1215,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -595,8 +1240,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -608,7 +1252,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -625,8 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,8 +1294,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,8 +1319,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,8 +1344,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,8 +1369,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,8 +1394,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,8 +1419,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,8 +1444,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,8 +1469,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,9 +1482,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -864,13 +1505,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -890,8 +1530,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,8 +1555,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,8 +1580,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,8 +1605,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,8 +1630,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,8 +1655,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,8 +1680,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,8 +1705,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,8 +1730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,8 +1755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,9 +1768,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1151,8 +1787,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1172,8 +1806,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1818,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1202,8 +1835,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,8 +1860,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,8 +1885,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,8 +1910,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,8 +1935,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,8 +1960,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,8 +1985,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,8 +2010,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,8 +2035,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,9 +2048,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1435,30 +2065,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8516" style="1" customWidth="1"/>
-    <col min="12" max="13" width="17.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5384615384615" style="1" customWidth="1"/>
+    <col min="10" max="12" width="19.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1473,249 +2099,669 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="58" customHeight="1">
+    <row r="2" ht="58" customHeight="1" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" t="s" s="4">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" t="s" s="4">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="7">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s" s="8">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s" s="8">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s" s="8">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s" s="8">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s" s="8">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="8">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s" s="8">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s" s="8">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s" s="8">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s" s="8">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s" s="8">
-        <v>35</v>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>60</v>
-      </c>
-      <c r="L7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="J7" s="5">
+        <v>999</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>30</v>
+      </c>
+      <c r="M7" s="6">
+        <v>44234.645625</v>
+      </c>
+      <c r="N7" s="5">
+        <f>(M7-70*365-19)*86400-8*3600</f>
+        <v>1612682982</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
+    <row r="8" ht="25" customHeight="1" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="5">
+        <v>999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>60</v>
+      </c>
+      <c r="M8" s="6">
+        <v>44234.5622916667</v>
+      </c>
+      <c r="N8" s="5">
+        <f>(M8-70*365-19)*86400-8*3600</f>
+        <v>1612675782</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:16">
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>999</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ref="N9:N16" si="0">(M9-70*365-19)*86400-8*3600</f>
+        <v>-28800</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:16">
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>999</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>-28800</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:16">
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>999</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>-28800</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:16">
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9999</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>-28800</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:16">
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="11">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>60</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="J13" s="1">
+        <v>9999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>-28800</v>
+      </c>
+      <c r="O13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:16">
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
-        <v>1</v>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>9999</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>-28800</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:16">
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9999</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>-28800</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:16">
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>25569</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="0"/>
+        <v>-28800</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -212,10 +212,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,7 +233,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,42 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -291,24 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +338,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,42 +377,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -410,181 +410,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +616,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -633,24 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,152 +713,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -866,6 +866,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2069,15 +2070,13 @@
   <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5384615384615" style="1" customWidth="1"/>
-    <col min="10" max="12" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="12" width="19.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
     <col min="14" max="14" width="32.1538461538462" style="1" customWidth="1"/>
     <col min="15" max="16384" width="19.25" style="1" customWidth="1"/>
@@ -2341,7 +2340,7 @@
       <c r="M7" s="6">
         <v>44234.645625</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="7">
         <f>(M7-70*365-19)*86400-8*3600</f>
         <v>1612682982</v>
       </c>
@@ -2388,7 +2387,7 @@
       <c r="M8" s="6">
         <v>44234.5622916667</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="7">
         <f>(M8-70*365-19)*86400-8*3600</f>
         <v>1612675782</v>
       </c>
@@ -2428,14 +2427,14 @@
         <v>-1</v>
       </c>
       <c r="L9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N9" s="5">
+        <v>5</v>
+      </c>
+      <c r="M9" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N9" s="7">
         <f t="shared" ref="N9:N16" si="0">(M9-70*365-19)*86400-8*3600</f>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O9" s="5">
         <v>-1</v>
@@ -2475,12 +2474,12 @@
       <c r="L10" s="5">
         <v>-1</v>
       </c>
-      <c r="M10" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="M10" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O10" s="5">
         <v>-1</v>
@@ -2520,12 +2519,12 @@
       <c r="L11" s="5">
         <v>-1</v>
       </c>
-      <c r="M11" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O11" s="5">
         <v>-1</v>
@@ -2565,12 +2564,12 @@
       <c r="L12" s="5">
         <v>-1</v>
       </c>
-      <c r="M12" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="M12" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N12" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O12" s="5">
         <v>-1</v>
@@ -2610,12 +2609,12 @@
       <c r="L13" s="5">
         <v>-1</v>
       </c>
-      <c r="M13" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="M13" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N13" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O13" s="5">
         <v>-1</v>
@@ -2655,12 +2654,12 @@
       <c r="L14" s="5">
         <v>-1</v>
       </c>
-      <c r="M14" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="M14" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N14" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O14" s="5">
         <v>-1</v>
@@ -2700,12 +2699,12 @@
       <c r="L15" s="5">
         <v>-1</v>
       </c>
-      <c r="M15" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="M15" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N15" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O15" s="5">
         <v>-1</v>
@@ -2745,12 +2744,12 @@
       <c r="L16" s="5">
         <v>-1</v>
       </c>
-      <c r="M16" s="7">
-        <v>25569</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="M16" s="8">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N16" s="7">
         <f t="shared" si="0"/>
-        <v>-28800</v>
+        <v>-1.04773789644241e-7</v>
       </c>
       <c r="O16" s="5">
         <v>-1</v>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -24,14 +24,17 @@
   <si>
     <t>0：普通物品  1: 装备 -2: 礼包</t>
-  </si>
-  <si>
-    <t>0:N -1:R -2:SR -3:SSR -4:UR</t>
+2: 晶石 3: 礼包</t>
+  </si>
+  <si>
+    <t>0：材料与消耗品</t>
+  </si>
+  <si>
+    <t>0:白 +1:绿 +2:蓝 +3:紫 +4:橙</t>
   </si>
   <si>
     <t>永久物品填-1</t>
@@ -211,11 +214,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,13 +236,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -250,6 +246,14 @@
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,36 +273,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -306,9 +280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,15 +304,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,19 +324,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,14 +364,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +413,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,169 +431,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +619,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +660,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,172 +713,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,22 +842,22 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2071,12 +2074,14 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="1" customWidth="1"/>
+    <col min="8" max="12" width="19.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
     <col min="14" max="14" width="32.1538461538462" style="1" customWidth="1"/>
     <col min="15" max="16384" width="19.25" style="1" customWidth="1"/>
@@ -2114,138 +2119,140 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2261,47 +2268,47 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
@@ -2311,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2358,13 +2365,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -2403,13 +2410,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2427,7 +2434,7 @@
         <v>-1</v>
       </c>
       <c r="L9" s="5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="8">
         <v>25569.3333333333</v>
@@ -2448,13 +2455,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2493,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2538,13 +2545,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2583,13 +2590,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2628,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2673,13 +2680,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2718,13 +2725,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -46,6 +46,9 @@
     <t>公式生成时间戳，策划不用填</t>
   </si>
   <si>
+    <t>货币类型，参照Token.xlsx</t>
+  </si>
+  <si>
     <t>-1：无效果  0: 掉落物品  </t>
@@ -71,6 +74,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>GainWay</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -95,6 +101,18 @@
     <t>timeStartLifeStamp</t>
   </si>
   <si>
+    <t>canSell</t>
+  </si>
+  <si>
+    <t>sellType</t>
+  </si>
+  <si>
+    <t>sellPrice</t>
+  </si>
+  <si>
+    <t>staleGainId</t>
+  </si>
+  <si>
     <t>effectType</t>
   </si>
   <si>
@@ -113,6 +131,9 @@
     <t>图标</t>
   </si>
   <si>
+    <t>获取途径</t>
+  </si>
+  <si>
     <t>物品类型</t>
   </si>
   <si>
@@ -134,6 +155,18 @@
     <t>时限开始时间（unix时间戳）</t>
   </si>
   <si>
+    <t>是否可以出售</t>
+  </si>
+  <si>
+    <t>出售货币类型</t>
+  </si>
+  <si>
+    <t>出售价格</t>
+  </si>
+  <si>
+    <t>过期后转换的掉落id</t>
+  </si>
+  <si>
     <t>使用效果类型</t>
   </si>
   <si>
@@ -155,6 +188,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>[]int32</t>
   </si>
   <si>
@@ -167,7 +206,13 @@
     <t>icon_1</t>
   </si>
   <si>
+    <t>礼包,活动</t>
+  </si>
+  <si>
     <t>经验药水2</t>
+  </si>
+  <si>
+    <t>关卡</t>
   </si>
   <si>
     <t>经验药水3</t>
@@ -214,11 +259,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -236,6 +281,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -249,6 +301,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -258,17 +317,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,9 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,7 +363,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,43 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -361,30 +430,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -413,19 +458,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,67 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,85 +614,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +664,66 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -654,210 +758,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2071,23 +2116,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37" style="1" customWidth="1"/>
-    <col min="8" max="12" width="19.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.3846153846154" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1538461538462" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="1" customWidth="1"/>
+    <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:16">
+    <row r="1" ht="14" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2106,8 +2151,13 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:16">
+    <row r="2" ht="58" customHeight="1" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2116,145 +2166,184 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="U2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:16">
+    <row r="3" ht="16.15" customHeight="1" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:16">
+    <row r="4" ht="16.15" customHeight="1" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:16">
+    <row r="5" ht="16.15" customHeight="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2264,70 +2353,90 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:16">
+    <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:16">
+    <row r="7" ht="25" customHeight="1" spans="1:21">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -2336,225 +2445,300 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>999</v>
       </c>
-      <c r="K7" s="5">
-        <v>-1</v>
-      </c>
       <c r="L7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="5">
         <v>30</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>44234.645625</v>
       </c>
-      <c r="N7" s="7">
-        <f>(M7-70*365-19)*86400-8*3600</f>
+      <c r="O7" s="7">
+        <f>(N7-70*365-19)*86400-8*3600</f>
         <v>1612682982</v>
       </c>
-      <c r="O7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:16">
+    <row r="8" ht="25" customHeight="1" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>999</v>
       </c>
-      <c r="K8" s="5">
-        <v>-1</v>
-      </c>
       <c r="L8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="5">
         <v>60</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>44234.5622916667</v>
       </c>
-      <c r="N8" s="7">
-        <f>(M8-70*365-19)*86400-8*3600</f>
+      <c r="O8" s="7">
+        <f>(N8-70*365-19)*86400-8*3600</f>
         <v>1612675782</v>
       </c>
-      <c r="O8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:16">
+    <row r="9" customHeight="1" spans="3:21">
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>999</v>
       </c>
-      <c r="K9" s="5">
-        <v>-1</v>
-      </c>
       <c r="L9" s="5">
         <v>-1</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N9:N16" si="0">(M9-70*365-19)*86400-8*3600</f>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="O9" s="7">
+        <f t="shared" ref="O9:O16" si="0">(N9-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:16">
+    <row r="10" customHeight="1" spans="3:21">
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>999</v>
       </c>
-      <c r="K10" s="5">
-        <v>-1</v>
-      </c>
       <c r="L10" s="5">
         <v>-1</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:16">
+    <row r="11" customHeight="1" spans="3:21">
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>4</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>999</v>
       </c>
-      <c r="K11" s="5">
-        <v>-1</v>
-      </c>
       <c r="L11" s="5">
         <v>-1</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:16">
+    <row r="12" customHeight="1" spans="3:21">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -2562,206 +2746,281 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>9999</v>
       </c>
-      <c r="K12" s="5">
-        <v>-1</v>
-      </c>
       <c r="L12" s="5">
         <v>-1</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:16">
+    <row r="13" customHeight="1" spans="3:21">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>9999</v>
       </c>
-      <c r="K13" s="5">
-        <v>-1</v>
-      </c>
       <c r="L13" s="5">
         <v>-1</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:16">
+    <row r="14" customHeight="1" spans="3:21">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>9999</v>
       </c>
-      <c r="K14" s="5">
-        <v>-1</v>
-      </c>
       <c r="L14" s="5">
         <v>-1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:16">
+    <row r="15" customHeight="1" spans="3:21">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>9999</v>
       </c>
-      <c r="K15" s="5">
-        <v>-1</v>
-      </c>
       <c r="L15" s="5">
         <v>-1</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:16">
+    <row r="16" customHeight="1" spans="3:21">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
       <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>4</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>9999</v>
       </c>
-      <c r="K16" s="5">
-        <v>-1</v>
-      </c>
       <c r="L16" s="5">
         <v>-1</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="8">
         <v>25569.3333333333</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <f t="shared" si="0"/>
-        <v>-1.04773789644241e-7</v>
-      </c>
-      <c r="O16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="5">
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="5">
         <v>-1</v>
       </c>
     </row>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -13,13 +13,65 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-9：卡牌升级经验药水
+10-19：卡牌突破道具
+20-29：卡牌技能升级道具
+30-39：卡牌觉醒道具
+40-49：装备经验道具
+50-59：装备突破道具
+60-69：晶石经验道具
+70-79：收集品升星道具
+80-89：收集品觉醒道具
+90-99：宠物升级道具
+100-109：体力道具
+110-119：抽卡道具
+120-499：各种卡牌碎片
+500-599：礼物道具
+600-699：换肤道具
+700-799：家园道具
+800-999：礼包
+1000-1999：装备
+2000-2999：晶石
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>物品id</t>
+    <t xml:space="preserve">物品id
+</t>
   </si>
   <si>
     <t>0：普通物品 @@ -197,7 +249,7 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>经验药水1</t>
+    <t>卡牌升级经验药水1</t>
   </si>
   <si>
     <t>卡牌升级经验道具</t>
@@ -209,61 +261,294 @@
     <t>礼包,活动</t>
   </si>
   <si>
-    <t>经验药水2</t>
+    <t>卡牌升级经验药水2</t>
   </si>
   <si>
     <t>关卡</t>
   </si>
   <si>
-    <t>经验药水3</t>
-  </si>
-  <si>
-    <t>经验药水4</t>
-  </si>
-  <si>
-    <t>经验药水5</t>
-  </si>
-  <si>
-    <t>突破道具1</t>
+    <t>卡牌升级经验药水3</t>
+  </si>
+  <si>
+    <t>卡牌升级经验药水4</t>
+  </si>
+  <si>
+    <t>卡牌升级经验药水5</t>
+  </si>
+  <si>
+    <t>治疗英雄碎片包</t>
+  </si>
+  <si>
+    <t>卡牌突破道具1</t>
   </si>
   <si>
     <t>第1次突破道具</t>
   </si>
   <si>
-    <t>突破道具2</t>
+    <t>卡牌突破道具2</t>
   </si>
   <si>
     <t>第2次突破道具</t>
   </si>
   <si>
-    <t>突破道具3</t>
+    <t>卡牌突破道具3</t>
   </si>
   <si>
     <t>第3次突破道具</t>
   </si>
   <si>
-    <t>突破道具4</t>
+    <t>卡牌突破道具4</t>
   </si>
   <si>
     <t>第4次突破道具</t>
   </si>
   <si>
-    <t>突破道具5</t>
+    <t>卡牌突破道具5</t>
   </si>
   <si>
     <t>第5次突破道具</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具1</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具2</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具3</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具4</t>
+  </si>
+  <si>
+    <t>卡牌技能升级道具5</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具1</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具2</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具3</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具4</t>
+  </si>
+  <si>
+    <t>卡牌觉醒道具5</t>
+  </si>
+  <si>
+    <t>装备经验道具1</t>
+  </si>
+  <si>
+    <t>装备经验道具2</t>
+  </si>
+  <si>
+    <t>装备经验道具3</t>
+  </si>
+  <si>
+    <t>装备经验道具4</t>
+  </si>
+  <si>
+    <t>装备经验道具5</t>
+  </si>
+  <si>
+    <t>装备突破道具1</t>
+  </si>
+  <si>
+    <t>装备突破道具2</t>
+  </si>
+  <si>
+    <t>装备突破道具3</t>
+  </si>
+  <si>
+    <t>装备突破道具4</t>
+  </si>
+  <si>
+    <t>装备突破道具5</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具1</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具2</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具3</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具4</t>
+  </si>
+  <si>
+    <t>晶石升级经验道具5</t>
+  </si>
+  <si>
+    <t>收集品升星道具1</t>
+  </si>
+  <si>
+    <t>收集品升星道具2</t>
+  </si>
+  <si>
+    <t>收集品升星道具3</t>
+  </si>
+  <si>
+    <t>收集品升星道具4</t>
+  </si>
+  <si>
+    <t>收集品升星道具5</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具1</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具2</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具3</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具4</t>
+  </si>
+  <si>
+    <t>收集品觉醒道具5</t>
+  </si>
+  <si>
+    <t>宠物升级道具1</t>
+  </si>
+  <si>
+    <t>宠物升级道具2</t>
+  </si>
+  <si>
+    <t>宠物升级道具3</t>
+  </si>
+  <si>
+    <t>宠物升级道具4</t>
+  </si>
+  <si>
+    <t>宠物升级道具5</t>
+  </si>
+  <si>
+    <t>体力药水1</t>
+  </si>
+  <si>
+    <t>体力药水2</t>
+  </si>
+  <si>
+    <t>体力药水3</t>
+  </si>
+  <si>
+    <t>体力药水4</t>
+  </si>
+  <si>
+    <t>体力药水5</t>
+  </si>
+  <si>
+    <t>音石（抽卡道具）</t>
+  </si>
+  <si>
+    <t>卡牌1碎片</t>
+  </si>
+  <si>
+    <t>卡牌2碎片</t>
+  </si>
+  <si>
+    <t>卡牌3碎片</t>
+  </si>
+  <si>
+    <t>卡牌4碎片</t>
+  </si>
+  <si>
+    <t>卡牌5碎片</t>
+  </si>
+  <si>
+    <t>礼物1</t>
+  </si>
+  <si>
+    <t>礼物2</t>
+  </si>
+  <si>
+    <t>礼物3</t>
+  </si>
+  <si>
+    <t>礼物4</t>
+  </si>
+  <si>
+    <t>礼物5</t>
+  </si>
+  <si>
+    <t>换肤道具1</t>
+  </si>
+  <si>
+    <t>换肤道具2</t>
+  </si>
+  <si>
+    <t>换肤道具3</t>
+  </si>
+  <si>
+    <t>家园道具1</t>
+  </si>
+  <si>
+    <t>家园道具2</t>
+  </si>
+  <si>
+    <t>家园道具3</t>
+  </si>
+  <si>
+    <t>家园道具4</t>
+  </si>
+  <si>
+    <t>家园道具5</t>
+  </si>
+  <si>
+    <t>礼包1</t>
+  </si>
+  <si>
+    <t>礼包2</t>
+  </si>
+  <si>
+    <t>礼包3</t>
+  </si>
+  <si>
+    <t>装备1</t>
+  </si>
+  <si>
+    <t>装备2</t>
+  </si>
+  <si>
+    <t>装备3</t>
+  </si>
+  <si>
+    <t>装备4</t>
+  </si>
+  <si>
+    <t>装备5</t>
+  </si>
+  <si>
+    <t>晶石1</t>
+  </si>
+  <si>
+    <t>晶石2</t>
+  </si>
+  <si>
+    <t>晶石3</t>
+  </si>
+  <si>
+    <t>晶石4</t>
+  </si>
+  <si>
+    <t>晶石5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -301,6 +586,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -309,10 +602,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,11 +624,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,11 +640,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,16 +656,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,39 +701,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,7 +749,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,37 +851,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,85 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,25 +905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,11 +964,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,171 +1035,150 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,11 +1196,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2116,10 +2403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2129,7 +2416,8 @@
     <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
     <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="19.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3846153846154" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:21">
@@ -2160,7 +2448,7 @@
     <row r="2" ht="58" customHeight="1" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -2205,61 +2493,61 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2268,61 +2556,61 @@
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2331,99 +2619,99 @@
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:21">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2438,54 +2726,54 @@
       <c r="G7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>999</v>
       </c>
-      <c r="L7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>30</v>
-      </c>
-      <c r="N7" s="6">
-        <v>44234.645625</v>
-      </c>
-      <c r="O7" s="7">
-        <f>(N7-70*365-19)*86400-8*3600</f>
-        <v>1612682982</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="5">
+      <c r="L7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" ref="O7:O12" si="0">(N7-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2500,52 +2788,52 @@
       <c r="G8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
         <v>999</v>
       </c>
-      <c r="L8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="5">
-        <v>60</v>
-      </c>
-      <c r="N8" s="6">
-        <v>44234.5622916667</v>
-      </c>
-      <c r="O8" s="7">
-        <f>(N8-70*365-19)*86400-8*3600</f>
-        <v>1612675782</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="L8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:21">
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2560,52 +2848,52 @@
       <c r="G9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>999</v>
       </c>
-      <c r="L9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O9" s="7">
-        <f t="shared" ref="O9:O16" si="0">(N9-70*365-19)*86400-8*3600</f>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S9" s="7">
-        <v>1</v>
-      </c>
-      <c r="T9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="L9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1</v>
+      </c>
+      <c r="T9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:21">
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2620,52 +2908,52 @@
       <c r="G10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>999</v>
       </c>
-      <c r="L10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="L10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:21">
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2680,119 +2968,119 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>4</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>999</v>
       </c>
-      <c r="L11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="L11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O11" s="8">
         <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
-      <c r="P11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:21">
-      <c r="C12" s="5">
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>999</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:21">
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>9999</v>
-      </c>
-      <c r="L12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O12" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:21">
-      <c r="C13" s="5">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>59</v>
@@ -2800,59 +3088,59 @@
       <c r="G13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>9999</v>
       </c>
-      <c r="L13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O13" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="5">
+      <c r="L13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O13" s="8">
+        <f>(N13-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:21">
-      <c r="C14" s="5">
-        <v>8</v>
+      <c r="C14" s="6">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>59</v>
@@ -2860,59 +3148,59 @@
       <c r="G14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>2</v>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>9999</v>
       </c>
-      <c r="L14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O14" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="5">
+      <c r="L14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O14" s="8">
+        <f>(N14-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:21">
-      <c r="C15" s="5">
-        <v>9</v>
+      <c r="C15" s="6">
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>59</v>
@@ -2920,59 +3208,59 @@
       <c r="G15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>3</v>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
       </c>
       <c r="K15" s="1">
         <v>9999</v>
       </c>
-      <c r="L15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O15" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="5">
+      <c r="L15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O15" s="8">
+        <f>(N15-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:21">
-      <c r="C16" s="5">
-        <v>10</v>
+      <c r="C16" s="6">
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>59</v>
@@ -2980,47 +3268,4727 @@
       <c r="G16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O16" s="8">
+        <f>(N16-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:21">
+      <c r="C17" s="6">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>4</v>
       </c>
-      <c r="K16" s="1">
-        <v>9999</v>
-      </c>
-      <c r="L16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="8">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O16" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S16" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="5">
+      <c r="K17" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" ref="O17:O48" si="1">(N17-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:21">
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:21">
+      <c r="C19" s="1">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:21">
+      <c r="C20" s="1">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:21">
+      <c r="C21" s="1">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:21">
+      <c r="C22" s="1">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:21">
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:21">
+      <c r="C24" s="1">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:21">
+      <c r="C25" s="1">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:21">
+      <c r="C26" s="1">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:21">
+      <c r="C27" s="1">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S27" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:21">
+      <c r="C28" s="1">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:21">
+      <c r="C29" s="1">
+        <v>41</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S29" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:21">
+      <c r="C30" s="1">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S30" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:21">
+      <c r="C31" s="1">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S31" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:21">
+      <c r="C32" s="1">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:21">
+      <c r="C33" s="1">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S33" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:21">
+      <c r="C34" s="1">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O34" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P34" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:21">
+      <c r="C35" s="1">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O35" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:21">
+      <c r="C36" s="1">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O36" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S36" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:21">
+      <c r="C37" s="1">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O37" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P37" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S37" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:21">
+      <c r="C38" s="1">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O38" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U38" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:21">
+      <c r="C39" s="1">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O39" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S39" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:21">
+      <c r="C40" s="1">
+        <v>62</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P40" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S40" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U40" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:21">
+      <c r="C41" s="1">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:21">
+      <c r="C42" s="1">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P42" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S42" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U42" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:21">
+      <c r="C43" s="1">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P43" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S43" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U43" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:21">
+      <c r="C44" s="1">
+        <v>71</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P44" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S44" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U44" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:21">
+      <c r="C45" s="1">
+        <v>72</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O45" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:21">
+      <c r="C46" s="1">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O46" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P46" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S46" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U46" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:21">
+      <c r="C47" s="1">
+        <v>74</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>4</v>
+      </c>
+      <c r="K47" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P47" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U47" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:21">
+      <c r="C48" s="1">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P48" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S48" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U48" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:21">
+      <c r="C49" s="1">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N49" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" ref="O49:O94" si="2">(N49-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P49" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S49" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U49" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:21">
+      <c r="C50" s="1">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S50" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U50" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:21">
+      <c r="C51" s="1">
+        <v>83</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N51" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P51" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S51" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U51" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:21">
+      <c r="C52" s="1">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N52" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P52" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U52" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:21">
+      <c r="C53" s="1">
+        <v>90</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P53" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S53" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U53" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:21">
+      <c r="C54" s="1">
+        <v>91</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O54" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P54" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S54" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U54" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:21">
+      <c r="C55" s="1">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>2</v>
+      </c>
+      <c r="K55" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P55" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S55" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U55" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:21">
+      <c r="C56" s="1">
+        <v>93</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N56" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P56" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S56" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U56" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:21">
+      <c r="C57" s="1">
+        <v>94</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N57" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P57" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U57" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:21">
+      <c r="C58" s="1">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N58" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U58" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:21">
+      <c r="C59" s="1">
+        <v>101</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P59" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U59" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:21">
+      <c r="C60" s="1">
+        <v>102</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N60" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P60" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U60" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:21">
+      <c r="C61" s="1">
+        <v>103</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>3</v>
+      </c>
+      <c r="K61" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N61" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S61" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U61" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:21">
+      <c r="C62" s="1">
+        <v>104</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>4</v>
+      </c>
+      <c r="K62" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N62" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O62" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P62" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U62" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:21">
+      <c r="C63" s="1">
+        <v>110</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N63" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P63" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>0</v>
+      </c>
+      <c r="R63" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S63" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U63" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:21">
+      <c r="C64" s="1">
+        <v>120</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N64" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P64" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S64" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U64" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:21">
+      <c r="C65" s="1">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N65" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S65" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U65" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:21">
+      <c r="C66" s="1">
+        <v>122</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>2</v>
+      </c>
+      <c r="K66" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N66" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O66" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P66" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>0</v>
+      </c>
+      <c r="R66" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S66" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U66" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:21">
+      <c r="C67" s="1">
+        <v>123</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>3</v>
+      </c>
+      <c r="K67" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N67" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P67" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>0</v>
+      </c>
+      <c r="R67" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S67" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U67" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:21">
+      <c r="C68" s="1">
+        <v>124</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N68" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O68" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P68" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>0</v>
+      </c>
+      <c r="R68" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S68" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U68" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:21">
+      <c r="C69" s="1">
+        <v>500</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N69" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P69" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>0</v>
+      </c>
+      <c r="R69" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S69" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U69" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:21">
+      <c r="C70" s="1">
+        <v>501</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N70" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P70" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S70" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U70" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:21">
+      <c r="C71" s="1">
+        <v>502</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>2</v>
+      </c>
+      <c r="K71" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N71" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O71" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P71" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>0</v>
+      </c>
+      <c r="R71" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S71" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U71" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:21">
+      <c r="C72" s="1">
+        <v>503</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>3</v>
+      </c>
+      <c r="K72" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N72" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O72" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P72" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>0</v>
+      </c>
+      <c r="R72" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S72" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U72" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:21">
+      <c r="C73" s="1">
+        <v>504</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>4</v>
+      </c>
+      <c r="K73" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N73" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O73" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P73" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S73" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U73" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:21">
+      <c r="C74" s="1">
+        <v>600</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N74" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O74" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P74" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S74" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U74" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:21">
+      <c r="C75" s="1">
+        <v>601</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N75" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P75" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S75" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U75" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:21">
+      <c r="C76" s="1">
+        <v>602</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>2</v>
+      </c>
+      <c r="K76" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N76" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O76" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P76" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S76" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U76" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:21">
+      <c r="C77" s="1">
+        <v>700</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N77" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O77" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P77" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S77" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U77" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:21">
+      <c r="C78" s="1">
+        <v>701</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N78" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O78" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P78" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>0</v>
+      </c>
+      <c r="R78" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S78" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U78" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:21">
+      <c r="C79" s="1">
+        <v>702</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>2</v>
+      </c>
+      <c r="K79" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N79" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O79" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P79" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>0</v>
+      </c>
+      <c r="R79" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S79" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U79" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:21">
+      <c r="C80" s="1">
+        <v>703</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>3</v>
+      </c>
+      <c r="K80" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N80" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O80" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P80" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>0</v>
+      </c>
+      <c r="R80" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S80" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U80" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:21">
+      <c r="C81" s="1">
+        <v>704</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
+        <v>4</v>
+      </c>
+      <c r="K81" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N81" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O81" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P81" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>0</v>
+      </c>
+      <c r="R81" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S81" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U81" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:21">
+      <c r="C82" s="1">
+        <v>800</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N82" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O82" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P82" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>0</v>
+      </c>
+      <c r="R82" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S82" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U82" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:21">
+      <c r="C83" s="1">
+        <v>801</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N83" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O83" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P83" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>0</v>
+      </c>
+      <c r="R83" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S83" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U83" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:21">
+      <c r="C84" s="1">
+        <v>802</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2</v>
+      </c>
+      <c r="K84" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N84" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O84" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P84" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>0</v>
+      </c>
+      <c r="R84" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S84" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U84" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:21">
+      <c r="C85" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O85" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P85" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>0</v>
+      </c>
+      <c r="R85" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S85" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U85" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:21">
+      <c r="C86" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N86" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O86" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P86" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>0</v>
+      </c>
+      <c r="R86" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S86" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U86" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:21">
+      <c r="C87" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
+        <v>2</v>
+      </c>
+      <c r="K87" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N87" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O87" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P87" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>0</v>
+      </c>
+      <c r="R87" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S87" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U87" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:21">
+      <c r="C88" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>3</v>
+      </c>
+      <c r="K88" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N88" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O88" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P88" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>0</v>
+      </c>
+      <c r="R88" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S88" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U88" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:21">
+      <c r="C89" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>4</v>
+      </c>
+      <c r="K89" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N89" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O89" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P89" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>0</v>
+      </c>
+      <c r="R89" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S89" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U89" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:21">
+      <c r="C90" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N90" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O90" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P90" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>0</v>
+      </c>
+      <c r="R90" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S90" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U90" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:21">
+      <c r="C91" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N91" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O91" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P91" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>0</v>
+      </c>
+      <c r="R91" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S91" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U91" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:21">
+      <c r="C92" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N92" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O92" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P92" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="8">
+        <v>0</v>
+      </c>
+      <c r="R92" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S92" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U92" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:21">
+      <c r="C93" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>3</v>
+      </c>
+      <c r="K93" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N93" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O93" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P93" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>0</v>
+      </c>
+      <c r="R93" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S93" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U93" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:21">
+      <c r="C94" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>4</v>
+      </c>
+      <c r="K94" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O94" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P94" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>0</v>
+      </c>
+      <c r="R94" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S94" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U94" s="6">
         <v>-1</v>
       </c>
     </row>
@@ -3030,5 +7998,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>卡牌升级经验药水5</t>
-  </si>
-  <si>
-    <t>治疗英雄碎片包</t>
   </si>
   <si>
     <t>卡牌突破道具1</t>
@@ -2403,10 +2400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2748,7 +2745,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" ref="O7:O12" si="0">(N7-70*365-19)*86400-8*3600</f>
+        <f>(N7-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P7" s="8">
@@ -2810,7 +2807,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="0"/>
+        <f>(N8-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P8" s="8">
@@ -2870,7 +2867,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="0"/>
+        <f>(N9-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P9" s="8">
@@ -2930,7 +2927,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="0"/>
+        <f>(N10-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P10" s="8">
@@ -2990,7 +2987,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="0"/>
+        <f>(N11-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P11" s="8">
@@ -3012,21 +3009,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:21">
+    <row r="12" customHeight="1" spans="3:21">
       <c r="C12" s="6">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -3035,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="6">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6">
-        <v>999</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9999</v>
       </c>
       <c r="L12" s="6">
         <v>-1</v>
@@ -3050,7 +3047,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="0"/>
+        <f>(N12-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P12" s="8">
@@ -3066,21 +3063,21 @@
         <v>-1</v>
       </c>
       <c r="T12" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U12" s="6">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:21">
       <c r="C13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>59</v>
@@ -3095,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>9999</v>
@@ -3134,13 +3131,13 @@
     </row>
     <row r="14" customHeight="1" spans="3:21">
       <c r="C14" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>59</v>
@@ -3155,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
         <v>9999</v>
@@ -3194,13 +3191,13 @@
     </row>
     <row r="15" customHeight="1" spans="3:21">
       <c r="C15" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>59</v>
@@ -3215,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1">
         <v>9999</v>
@@ -3254,19 +3251,19 @@
     </row>
     <row r="16" customHeight="1" spans="3:21">
       <c r="C16" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -3275,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
         <v>9999</v>
@@ -3290,7 +3287,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O16" s="8">
-        <f>(N16-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O16:O47" si="0">(N16-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P16" s="8">
@@ -3313,11 +3310,11 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:21">
-      <c r="C17" s="6">
-        <v>14</v>
+      <c r="C17" s="1">
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -3335,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>9999</v>
@@ -3350,7 +3347,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" ref="O17:O48" si="1">(N17-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P17" s="8">
@@ -3374,7 +3371,7 @@
     </row>
     <row r="18" customHeight="1" spans="3:21">
       <c r="C18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>77</v>
@@ -3395,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>9999</v>
@@ -3410,7 +3407,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P18" s="8">
@@ -3434,7 +3431,7 @@
     </row>
     <row r="19" customHeight="1" spans="3:21">
       <c r="C19" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>78</v>
@@ -3455,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="1">
         <v>9999</v>
@@ -3470,7 +3467,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P19" s="8">
@@ -3494,7 +3491,7 @@
     </row>
     <row r="20" customHeight="1" spans="3:21">
       <c r="C20" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>79</v>
@@ -3515,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="1">
         <v>9999</v>
@@ -3530,7 +3527,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P20" s="8">
@@ -3554,7 +3551,7 @@
     </row>
     <row r="21" customHeight="1" spans="3:21">
       <c r="C21" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>80</v>
@@ -3575,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" s="1">
         <v>9999</v>
@@ -3590,7 +3587,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P21" s="8">
@@ -3614,7 +3611,7 @@
     </row>
     <row r="22" customHeight="1" spans="3:21">
       <c r="C22" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -3635,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>9999</v>
@@ -3650,7 +3647,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P22" s="8">
@@ -3674,7 +3671,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:21">
       <c r="C23" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -3695,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
         <v>9999</v>
@@ -3710,7 +3707,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P23" s="8">
@@ -3734,7 +3731,7 @@
     </row>
     <row r="24" customHeight="1" spans="3:21">
       <c r="C24" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>83</v>
@@ -3755,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1">
         <v>9999</v>
@@ -3770,7 +3767,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P24" s="8">
@@ -3794,7 +3791,7 @@
     </row>
     <row r="25" customHeight="1" spans="3:21">
       <c r="C25" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>84</v>
@@ -3815,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="1">
         <v>9999</v>
@@ -3830,7 +3827,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P25" s="8">
@@ -3854,7 +3851,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:21">
       <c r="C26" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>85</v>
@@ -3875,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" s="1">
         <v>9999</v>
@@ -3890,7 +3887,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P26" s="8">
@@ -3914,7 +3911,7 @@
     </row>
     <row r="27" customHeight="1" spans="3:21">
       <c r="C27" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>86</v>
@@ -3935,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>9999</v>
@@ -3950,7 +3947,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P27" s="8">
@@ -3974,7 +3971,7 @@
     </row>
     <row r="28" customHeight="1" spans="3:21">
       <c r="C28" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>87</v>
@@ -3995,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
         <v>9999</v>
@@ -4010,7 +4007,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P28" s="8">
@@ -4034,7 +4031,7 @@
     </row>
     <row r="29" customHeight="1" spans="3:21">
       <c r="C29" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>88</v>
@@ -4055,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1">
         <v>9999</v>
@@ -4070,7 +4067,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P29" s="8">
@@ -4094,7 +4091,7 @@
     </row>
     <row r="30" customHeight="1" spans="3:21">
       <c r="C30" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>89</v>
@@ -4115,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1">
         <v>9999</v>
@@ -4130,7 +4127,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P30" s="8">
@@ -4154,7 +4151,7 @@
     </row>
     <row r="31" customHeight="1" spans="3:21">
       <c r="C31" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>90</v>
@@ -4175,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1">
         <v>9999</v>
@@ -4190,7 +4187,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P31" s="8">
@@ -4214,7 +4211,7 @@
     </row>
     <row r="32" customHeight="1" spans="3:21">
       <c r="C32" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>91</v>
@@ -4235,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <v>9999</v>
@@ -4250,7 +4247,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P32" s="8">
@@ -4274,7 +4271,7 @@
     </row>
     <row r="33" customHeight="1" spans="3:21">
       <c r="C33" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>92</v>
@@ -4295,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
         <v>9999</v>
@@ -4310,7 +4307,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P33" s="8">
@@ -4334,7 +4331,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:21">
       <c r="C34" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>93</v>
@@ -4355,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="1">
         <v>9999</v>
@@ -4370,7 +4367,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P34" s="8">
@@ -4394,7 +4391,7 @@
     </row>
     <row r="35" customHeight="1" spans="3:21">
       <c r="C35" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>94</v>
@@ -4415,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="1">
         <v>9999</v>
@@ -4430,7 +4427,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P35" s="8">
@@ -4454,7 +4451,7 @@
     </row>
     <row r="36" customHeight="1" spans="3:21">
       <c r="C36" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>95</v>
@@ -4475,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1">
         <v>9999</v>
@@ -4490,7 +4487,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P36" s="8">
@@ -4514,7 +4511,7 @@
     </row>
     <row r="37" customHeight="1" spans="3:21">
       <c r="C37" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>96</v>
@@ -4535,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <v>9999</v>
@@ -4550,7 +4547,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P37" s="8">
@@ -4574,7 +4571,7 @@
     </row>
     <row r="38" customHeight="1" spans="3:21">
       <c r="C38" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>97</v>
@@ -4595,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
         <v>9999</v>
@@ -4610,7 +4607,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P38" s="8">
@@ -4634,7 +4631,7 @@
     </row>
     <row r="39" customHeight="1" spans="3:21">
       <c r="C39" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>98</v>
@@ -4655,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="1">
         <v>9999</v>
@@ -4670,7 +4667,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P39" s="8">
@@ -4694,7 +4691,7 @@
     </row>
     <row r="40" customHeight="1" spans="3:21">
       <c r="C40" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>99</v>
@@ -4715,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" s="1">
         <v>9999</v>
@@ -4730,7 +4727,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P40" s="8">
@@ -4754,7 +4751,7 @@
     </row>
     <row r="41" customHeight="1" spans="3:21">
       <c r="C41" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>100</v>
@@ -4775,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41" s="1">
         <v>9999</v>
@@ -4790,7 +4787,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P41" s="8">
@@ -4814,7 +4811,7 @@
     </row>
     <row r="42" customHeight="1" spans="3:21">
       <c r="C42" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>101</v>
@@ -4835,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
         <v>9999</v>
@@ -4850,7 +4847,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P42" s="8">
@@ -4874,7 +4871,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:21">
       <c r="C43" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>102</v>
@@ -4895,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
         <v>9999</v>
@@ -4910,7 +4907,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P43" s="8">
@@ -4934,7 +4931,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:21">
       <c r="C44" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>103</v>
@@ -4955,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1">
         <v>9999</v>
@@ -4970,7 +4967,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P44" s="8">
@@ -4994,7 +4991,7 @@
     </row>
     <row r="45" customHeight="1" spans="3:21">
       <c r="C45" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>104</v>
@@ -5015,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="1">
         <v>9999</v>
@@ -5030,7 +5027,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P45" s="8">
@@ -5054,7 +5051,7 @@
     </row>
     <row r="46" customHeight="1" spans="3:21">
       <c r="C46" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>105</v>
@@ -5075,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K46" s="1">
         <v>9999</v>
@@ -5090,7 +5087,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P46" s="8">
@@ -5114,7 +5111,7 @@
     </row>
     <row r="47" customHeight="1" spans="3:21">
       <c r="C47" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>106</v>
@@ -5135,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
         <v>9999</v>
@@ -5150,7 +5147,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P47" s="8">
@@ -5174,7 +5171,7 @@
     </row>
     <row r="48" customHeight="1" spans="3:21">
       <c r="C48" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>107</v>
@@ -5195,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
         <v>9999</v>
@@ -5210,7 +5207,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O48:O93" si="1">(N48-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P48" s="8">
@@ -5234,7 +5231,7 @@
     </row>
     <row r="49" customHeight="1" spans="3:21">
       <c r="C49" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>108</v>
@@ -5255,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" s="1">
         <v>9999</v>
@@ -5270,7 +5267,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" ref="O49:O94" si="2">(N49-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P49" s="8">
@@ -5294,7 +5291,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:21">
       <c r="C50" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>109</v>
@@ -5315,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K50" s="1">
         <v>9999</v>
@@ -5330,7 +5327,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P50" s="8">
@@ -5354,7 +5351,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:21">
       <c r="C51" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>110</v>
@@ -5375,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K51" s="1">
         <v>9999</v>
@@ -5390,7 +5387,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P51" s="8">
@@ -5414,7 +5411,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:21">
       <c r="C52" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>111</v>
@@ -5435,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
         <v>9999</v>
@@ -5450,7 +5447,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P52" s="8">
@@ -5474,7 +5471,7 @@
     </row>
     <row r="53" customHeight="1" spans="3:21">
       <c r="C53" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>112</v>
@@ -5495,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
         <v>9999</v>
@@ -5510,7 +5507,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P53" s="8">
@@ -5534,7 +5531,7 @@
     </row>
     <row r="54" customHeight="1" spans="3:21">
       <c r="C54" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>113</v>
@@ -5555,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="1">
         <v>9999</v>
@@ -5570,7 +5567,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P54" s="8">
@@ -5594,7 +5591,7 @@
     </row>
     <row r="55" customHeight="1" spans="3:21">
       <c r="C55" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>114</v>
@@ -5615,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" s="1">
         <v>9999</v>
@@ -5630,7 +5627,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P55" s="8">
@@ -5654,7 +5651,7 @@
     </row>
     <row r="56" customHeight="1" spans="3:21">
       <c r="C56" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>115</v>
@@ -5675,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K56" s="1">
         <v>9999</v>
@@ -5690,7 +5687,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P56" s="8">
@@ -5714,7 +5711,7 @@
     </row>
     <row r="57" customHeight="1" spans="3:21">
       <c r="C57" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>116</v>
@@ -5735,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
         <v>9999</v>
@@ -5750,7 +5747,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P57" s="8">
@@ -5774,7 +5771,7 @@
     </row>
     <row r="58" customHeight="1" spans="3:21">
       <c r="C58" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>117</v>
@@ -5795,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
         <v>9999</v>
@@ -5810,7 +5807,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P58" s="8">
@@ -5834,7 +5831,7 @@
     </row>
     <row r="59" customHeight="1" spans="3:21">
       <c r="C59" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>118</v>
@@ -5855,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="1">
         <v>9999</v>
@@ -5870,7 +5867,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P59" s="8">
@@ -5894,7 +5891,7 @@
     </row>
     <row r="60" customHeight="1" spans="3:21">
       <c r="C60" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>119</v>
@@ -5915,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" s="1">
         <v>9999</v>
@@ -5930,7 +5927,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P60" s="8">
@@ -5954,7 +5951,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:21">
       <c r="C61" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>120</v>
@@ -5975,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K61" s="1">
         <v>9999</v>
@@ -5990,7 +5987,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P61" s="8">
@@ -6014,7 +6011,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:21">
       <c r="C62" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>121</v>
@@ -6034,8 +6031,8 @@
       <c r="I62" s="6">
         <v>0</v>
       </c>
-      <c r="J62" s="6">
-        <v>4</v>
+      <c r="J62" s="1">
+        <v>0</v>
       </c>
       <c r="K62" s="1">
         <v>9999</v>
@@ -6050,7 +6047,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P62" s="8">
@@ -6074,7 +6071,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:21">
       <c r="C63" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>122</v>
@@ -6094,7 +6091,7 @@
       <c r="I63" s="6">
         <v>0</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="6">
         <v>0</v>
       </c>
       <c r="K63" s="1">
@@ -6110,7 +6107,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P63" s="8">
@@ -6134,7 +6131,7 @@
     </row>
     <row r="64" customHeight="1" spans="3:21">
       <c r="C64" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>123</v>
@@ -6155,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
         <v>9999</v>
@@ -6170,7 +6167,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P64" s="8">
@@ -6194,7 +6191,7 @@
     </row>
     <row r="65" customHeight="1" spans="3:21">
       <c r="C65" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>124</v>
@@ -6215,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" s="1">
         <v>9999</v>
@@ -6230,7 +6227,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P65" s="8">
@@ -6254,7 +6251,7 @@
     </row>
     <row r="66" customHeight="1" spans="3:21">
       <c r="C66" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>125</v>
@@ -6275,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" s="1">
         <v>9999</v>
@@ -6290,7 +6287,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P66" s="8">
@@ -6314,7 +6311,7 @@
     </row>
     <row r="67" customHeight="1" spans="3:21">
       <c r="C67" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>126</v>
@@ -6335,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K67" s="1">
         <v>9999</v>
@@ -6350,7 +6347,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P67" s="8">
@@ -6374,7 +6371,7 @@
     </row>
     <row r="68" customHeight="1" spans="3:21">
       <c r="C68" s="1">
-        <v>124</v>
+        <v>500</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>127</v>
@@ -6395,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
         <v>9999</v>
@@ -6410,7 +6407,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P68" s="8">
@@ -6434,7 +6431,7 @@
     </row>
     <row r="69" customHeight="1" spans="3:21">
       <c r="C69" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>128</v>
@@ -6455,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
         <v>9999</v>
@@ -6470,7 +6467,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P69" s="8">
@@ -6494,7 +6491,7 @@
     </row>
     <row r="70" customHeight="1" spans="3:21">
       <c r="C70" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
@@ -6515,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" s="1">
         <v>9999</v>
@@ -6530,7 +6527,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P70" s="8">
@@ -6554,7 +6551,7 @@
     </row>
     <row r="71" customHeight="1" spans="3:21">
       <c r="C71" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>130</v>
@@ -6575,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K71" s="1">
         <v>9999</v>
@@ -6590,7 +6587,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P71" s="8">
@@ -6614,7 +6611,7 @@
     </row>
     <row r="72" customHeight="1" spans="3:21">
       <c r="C72" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>131</v>
@@ -6635,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K72" s="1">
         <v>9999</v>
@@ -6650,7 +6647,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P72" s="8">
@@ -6674,7 +6671,7 @@
     </row>
     <row r="73" customHeight="1" spans="3:21">
       <c r="C73" s="1">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>132</v>
@@ -6694,8 +6691,8 @@
       <c r="I73" s="6">
         <v>0</v>
       </c>
-      <c r="J73" s="6">
-        <v>4</v>
+      <c r="J73" s="1">
+        <v>0</v>
       </c>
       <c r="K73" s="1">
         <v>9999</v>
@@ -6710,7 +6707,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P73" s="8">
@@ -6734,7 +6731,7 @@
     </row>
     <row r="74" customHeight="1" spans="3:21">
       <c r="C74" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>133</v>
@@ -6755,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
         <v>9999</v>
@@ -6770,7 +6767,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P74" s="8">
@@ -6794,7 +6791,7 @@
     </row>
     <row r="75" customHeight="1" spans="3:21">
       <c r="C75" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>134</v>
@@ -6815,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="1">
         <v>9999</v>
@@ -6830,7 +6827,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P75" s="8">
@@ -6854,7 +6851,7 @@
     </row>
     <row r="76" customHeight="1" spans="3:21">
       <c r="C76" s="1">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>135</v>
@@ -6874,8 +6871,8 @@
       <c r="I76" s="6">
         <v>0</v>
       </c>
-      <c r="J76" s="1">
-        <v>2</v>
+      <c r="J76" s="6">
+        <v>0</v>
       </c>
       <c r="K76" s="1">
         <v>9999</v>
@@ -6890,7 +6887,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P76" s="8">
@@ -6914,7 +6911,7 @@
     </row>
     <row r="77" customHeight="1" spans="3:21">
       <c r="C77" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>136</v>
@@ -6935,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
         <v>9999</v>
@@ -6950,7 +6947,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P77" s="8">
@@ -6974,7 +6971,7 @@
     </row>
     <row r="78" customHeight="1" spans="3:21">
       <c r="C78" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>137</v>
@@ -6995,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" s="1">
         <v>9999</v>
@@ -7010,7 +7007,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P78" s="8">
@@ -7034,7 +7031,7 @@
     </row>
     <row r="79" customHeight="1" spans="3:21">
       <c r="C79" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>138</v>
@@ -7055,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79" s="1">
         <v>9999</v>
@@ -7070,7 +7067,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P79" s="8">
@@ -7094,7 +7091,7 @@
     </row>
     <row r="80" customHeight="1" spans="3:21">
       <c r="C80" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>139</v>
@@ -7115,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K80" s="1">
         <v>9999</v>
@@ -7130,7 +7127,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P80" s="8">
@@ -7154,7 +7151,7 @@
     </row>
     <row r="81" customHeight="1" spans="3:21">
       <c r="C81" s="1">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>140</v>
@@ -7168,14 +7165,14 @@
       <c r="G81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H81" s="6">
-        <v>0</v>
+      <c r="H81" s="1">
+        <v>3</v>
       </c>
       <c r="I81" s="6">
         <v>0</v>
       </c>
-      <c r="J81" s="6">
-        <v>4</v>
+      <c r="J81" s="1">
+        <v>0</v>
       </c>
       <c r="K81" s="1">
         <v>9999</v>
@@ -7190,7 +7187,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P81" s="8">
@@ -7214,7 +7211,7 @@
     </row>
     <row r="82" customHeight="1" spans="3:21">
       <c r="C82" s="1">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>141</v>
@@ -7235,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
         <v>9999</v>
@@ -7250,7 +7247,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P82" s="8">
@@ -7274,7 +7271,7 @@
     </row>
     <row r="83" customHeight="1" spans="3:21">
       <c r="C83" s="1">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>142</v>
@@ -7295,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83" s="1">
         <v>9999</v>
@@ -7310,7 +7307,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P83" s="8">
@@ -7334,7 +7331,7 @@
     </row>
     <row r="84" customHeight="1" spans="3:21">
       <c r="C84" s="1">
-        <v>802</v>
+        <v>1000</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>143</v>
@@ -7349,13 +7346,13 @@
         <v>62</v>
       </c>
       <c r="H84" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" s="6">
         <v>0</v>
       </c>
-      <c r="J84" s="1">
-        <v>2</v>
+      <c r="J84" s="6">
+        <v>0</v>
       </c>
       <c r="K84" s="1">
         <v>9999</v>
@@ -7370,7 +7367,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P84" s="8">
@@ -7394,7 +7391,7 @@
     </row>
     <row r="85" customHeight="1" spans="3:21">
       <c r="C85" s="1">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>144</v>
@@ -7415,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
         <v>9999</v>
@@ -7430,7 +7427,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P85" s="8">
@@ -7454,7 +7451,7 @@
     </row>
     <row r="86" customHeight="1" spans="3:21">
       <c r="C86" s="1">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>145</v>
@@ -7475,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86" s="1">
         <v>9999</v>
@@ -7490,7 +7487,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O86" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P86" s="8">
@@ -7514,7 +7511,7 @@
     </row>
     <row r="87" customHeight="1" spans="3:21">
       <c r="C87" s="1">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>146</v>
@@ -7535,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K87" s="1">
         <v>9999</v>
@@ -7550,7 +7547,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P87" s="8">
@@ -7574,7 +7571,7 @@
     </row>
     <row r="88" customHeight="1" spans="3:21">
       <c r="C88" s="1">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>147</v>
@@ -7595,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K88" s="1">
         <v>9999</v>
@@ -7610,7 +7607,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P88" s="8">
@@ -7634,7 +7631,7 @@
     </row>
     <row r="89" customHeight="1" spans="3:21">
       <c r="C89" s="1">
-        <v>1004</v>
+        <v>2000</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>148</v>
@@ -7649,13 +7646,13 @@
         <v>62</v>
       </c>
       <c r="H89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" s="6">
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
         <v>9999</v>
@@ -7670,7 +7667,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P89" s="8">
@@ -7694,7 +7691,7 @@
     </row>
     <row r="90" customHeight="1" spans="3:21">
       <c r="C90" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>149</v>
@@ -7715,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="1">
         <v>9999</v>
@@ -7730,7 +7727,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O90" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P90" s="8">
@@ -7754,7 +7751,7 @@
     </row>
     <row r="91" customHeight="1" spans="3:21">
       <c r="C91" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>150</v>
@@ -7775,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" s="1">
         <v>9999</v>
@@ -7790,7 +7787,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O91" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P91" s="8">
@@ -7814,7 +7811,7 @@
     </row>
     <row r="92" customHeight="1" spans="3:21">
       <c r="C92" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>151</v>
@@ -7835,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" s="1">
         <v>9999</v>
@@ -7850,7 +7847,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P92" s="8">
@@ -7874,7 +7871,7 @@
     </row>
     <row r="93" customHeight="1" spans="3:21">
       <c r="C93" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>152</v>
@@ -7895,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K93" s="1">
         <v>9999</v>
@@ -7910,7 +7907,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P93" s="8">
@@ -7929,66 +7926,6 @@
         <v>-1</v>
       </c>
       <c r="U93" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:21">
-      <c r="C94" s="1">
-        <v>2004</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" s="1">
-        <v>2</v>
-      </c>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <v>4</v>
-      </c>
-      <c r="K94" s="1">
-        <v>9999</v>
-      </c>
-      <c r="L94" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M94" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N94" s="7">
-        <v>25569.3333333333</v>
-      </c>
-      <c r="O94" s="8">
-        <f t="shared" si="2"/>
-        <v>-2.93366611003876e-6</v>
-      </c>
-      <c r="P94" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="8">
-        <v>0</v>
-      </c>
-      <c r="R94" s="8">
-        <v>1000</v>
-      </c>
-      <c r="S94" s="8">
-        <v>-1</v>
-      </c>
-      <c r="T94" s="6">
-        <v>-1</v>
-      </c>
-      <c r="U94" s="6">
         <v>-1</v>
       </c>
     </row>
